--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>置換変数</t>
   </si>
@@ -32,7 +32,7 @@
     <t>本体</t>
   </si>
   <si>
-    <t>No</t>
+    <t>行番号</t>
   </si>
   <si>
     <t>○× △□様</t>
@@ -98,9 +98,6 @@
     <t>■購入チケット情報</t>
   </si>
   <si>
-    <t>項目番号</t>
-  </si>
-  <si>
     <t>説明</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
     <t>合計金額:計 10,625円</t>
   </si>
   <si>
+    <t>13,16,17</t>
+  </si>
+  <si>
     <t>チケット購入枚数</t>
   </si>
   <si>
@@ -248,106 +248,121 @@
     <t>■引取方法</t>
   </si>
   <si>
+    <t>チケット料金合計金額</t>
+  </si>
+  <si>
+    <t>9,360</t>
+  </si>
+  <si>
+    <t>ticketTotalAmount</t>
+  </si>
+  <si>
     <t xml:space="preserve">配送でお届け </t>
   </si>
   <si>
-    <t>チケット料金合計金額</t>
-  </si>
-  <si>
-    <t>9,360</t>
-  </si>
-  <si>
-    <t>ticketTotalAmount</t>
+    <t>システム利用料</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>systemUseAmount</t>
   </si>
   <si>
     <t>お届け先:基本情報</t>
   </si>
   <si>
-    <t>システム利用料</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>systemUseAmount</t>
+    <t>システム利用料合計金額</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>systemUseTotalAmount</t>
   </si>
   <si>
     <t>◆決済について</t>
   </si>
   <si>
+    <t>配送手数料</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>shippingCharges</t>
+  </si>
+  <si>
     <t>ご登録の決済方法にてお支払い手続きは完了しています。</t>
   </si>
   <si>
-    <t>システム利用料合計金額</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>systemUseTotalAmount</t>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>10,625</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
   </si>
   <si>
     <t>ご購入後のチケットの変更・キャンセルはできません。</t>
   </si>
   <si>
-    <t>配送手数料</t>
-  </si>
-  <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>shippingCharges</t>
-  </si>
-  <si>
-    <t>合計金額</t>
-  </si>
-  <si>
-    <t>10,625</t>
-  </si>
-  <si>
-    <t>totalAmount</t>
+    <t>決済方法</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
+  </si>
+  <si>
+    <t>決済種別</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>paymentType</t>
   </si>
   <si>
     <t>◆チケットの発送について</t>
   </si>
   <si>
-    <t>決済方法</t>
-  </si>
-  <si>
-    <t>paymentMethod</t>
+    <t>引取方法</t>
+  </si>
+  <si>
+    <t>takeOffMethod</t>
   </si>
   <si>
     <t>チケットはゆうメール(簡易書留扱い)にてお届けいたします。</t>
   </si>
   <si>
-    <t>決済種別</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
-    <t>paymentType</t>
+    <t>53-56</t>
+  </si>
+  <si>
+    <t>差し込み「注意文言」</t>
+  </si>
+  <si>
+    <t>$PLUGTEXT$plugTextNotice</t>
   </si>
   <si>
     <t>配達時にご不在の場合、不在通知票が投函されますのでご確認ください。</t>
   </si>
   <si>
-    <t>引取方法</t>
-  </si>
-  <si>
-    <t>takeOffMethod</t>
+    <t>「共通フッター」インクルード</t>
+  </si>
+  <si>
+    <t>＜共通フッター＞</t>
+  </si>
+  <si>
+    <t>$INCLUDE$footer</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>チケットは、ご購入後、2日後-7日後のうちに配達にお伺いたします。</t>
   </si>
   <si>
-    <t>差し込み「注意文言」</t>
-  </si>
-  <si>
-    <t>$PLUGTEXT$</t>
-  </si>
-  <si>
-    <t>plugTextNotice</t>
+    <t>システム補足表示仕様</t>
   </si>
   <si>
     <t>発送完了のメールは送信されませんのでご了承ください。</t>
@@ -356,42 +371,27 @@
     <t>なお、公演によっては発送日が指定されている場合がございます。</t>
   </si>
   <si>
+    <t>FROM TO 間のハイフン</t>
+  </si>
+  <si>
+    <t>fromToConnectStr</t>
+  </si>
+  <si>
     <t>「マイページ」の購入履歴からご確認ください。</t>
   </si>
   <si>
     <t>発送したチケットが、郵便局での保管期間終了などで弊社に返送されてまいりました場合、</t>
   </si>
   <si>
-    <t>「共通フッター」インクルード</t>
-  </si>
-  <si>
-    <t>＜共通フッター＞</t>
-  </si>
-  <si>
-    <t>$INCLUDE$footer</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>再発送に要する再発送料は別途頂戴いたしますのでご了承ください。</t>
   </si>
   <si>
-    <t>システム補足表示仕様</t>
-  </si>
-  <si>
     <t>公演日の1週間前になってもチケットがお手元に届かない場合は、 チケットぴあメールセンターまでお問い合わせください。</t>
   </si>
   <si>
     <t>チケットぴあメールセンター (営業時間 10:00-18:00)</t>
   </si>
   <si>
-    <t>FROM TO 間のハイフン</t>
-  </si>
-  <si>
-    <t>fromToConnectStr</t>
-  </si>
-  <si>
     <t>電話:0570-02-9596</t>
   </si>
   <si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>※リセール申込対象外の公演もございます。</t>
+  </si>
+  <si>
+    <t>ここからは差し込みファイル表現用</t>
   </si>
   <si>
     <t>万が一、病気などで行けなくなった時に備えて購入後すぐチケットにかける保険。チケットガードに入っていれば、もう安心!</t>
@@ -427,11 +430,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="&quot;【&quot;0&quot;】&quot;"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -720,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,7 +741,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -794,12 +797,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -812,10 +809,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1">
@@ -851,10 +848,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="5" applyFill="1" applyBorder="1">
@@ -1220,21 +1217,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="112.75" style="2" customWidth="1"/>
     <col min="4" max="5" width="3.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="53.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.93333333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
@@ -1244,10 +1242,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:10">
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1259,7 +1257,7 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1340,10 +1338,10 @@
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
@@ -1354,11 +1352,11 @@
         <v>16</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
@@ -1369,11 +1367,11 @@
         <v>18</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
@@ -1394,11 +1392,11 @@
         <v>21</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
@@ -1419,11 +1417,11 @@
         <v>24</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
@@ -1434,20 +1432,20 @@
         <v>26</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="I16" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="34" t="s">
         <v>29</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1456,23 +1454,23 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="F17" s="20">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="F17" s="22">
-        <v>1</v>
-      </c>
-      <c r="G17" s="23" t="s">
+      <c r="H17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="I17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="J17" s="35" t="s">
         <v>34</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1481,23 +1479,23 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="F18" s="23">
+        <v>6</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="F18" s="25">
-        <v>6</v>
-      </c>
-      <c r="G18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="I18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>35</v>
+      <c r="J18" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1506,23 +1504,23 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="F19" s="23">
+        <v>8</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="F19" s="25">
-        <v>8</v>
-      </c>
-      <c r="G19" s="26" t="s">
+      <c r="H19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="I19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>35</v>
+      <c r="J19" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1531,23 +1529,23 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="F20" s="23">
+        <v>9</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="F20" s="25">
-        <v>9</v>
-      </c>
-      <c r="G20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="I20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>35</v>
+      <c r="J20" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1556,23 +1554,23 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="F21" s="23">
+        <v>10</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="F21" s="25">
-        <v>10</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="I21" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>35</v>
+      <c r="J21" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1581,23 +1579,23 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="F22" s="23">
+        <v>11</v>
+      </c>
+      <c r="G22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="F22" s="25">
-        <v>11</v>
-      </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="I22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>35</v>
+      <c r="J22" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1606,22 +1604,22 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="F23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="F23" s="25">
-        <v>13</v>
-      </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1631,19 +1629,19 @@
       </c>
       <c r="B24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="F24" s="25">
+      <c r="F24" s="23">
         <v>14</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1656,19 +1654,19 @@
         <v>64</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <v>14</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="37" t="s">
+      <c r="J25" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1681,19 +1679,19 @@
         <v>68</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="F26" s="25">
+      <c r="F26" s="23">
         <v>14</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1706,19 +1704,19 @@
         <v>72</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="F27" s="25">
+      <c r="F27" s="23">
         <v>14</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="37" t="s">
+      <c r="J27" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1731,20 +1729,20 @@
         <v>76</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="F28" s="25">
+      <c r="F28" s="23">
         <v>16</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>60</v>
+      <c r="G28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1753,23 +1751,23 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="F29" s="25">
-        <v>16</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>35</v>
+      <c r="F29" s="23">
+        <v>17</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1778,23 +1776,23 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="F30" s="25">
+      <c r="F30" s="23">
         <v>17</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>35</v>
+      <c r="G30" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1803,23 +1801,23 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="F31" s="25">
-        <v>17</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>60</v>
+      <c r="F31" s="23">
+        <v>18</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1828,23 +1826,23 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="F32" s="25">
-        <v>17</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>35</v>
+      <c r="F32" s="23">
+        <v>19</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1853,23 +1851,23 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="F33" s="25">
-        <v>18</v>
+      <c r="F33" s="23">
+        <v>22</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>35</v>
+        <v>97</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1878,20 +1876,20 @@
       </c>
       <c r="B34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="F34" s="25">
-        <v>19</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>35</v>
+      <c r="F34" s="23">
+        <v>23</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1900,23 +1898,23 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="F35" s="25">
-        <v>22</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>35</v>
+      <c r="F35" s="23">
+        <v>25</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1925,23 +1923,21 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="F36" s="25">
-        <v>23</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>35</v>
+      <c r="F36" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1950,49 +1946,39 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="F37" s="25">
-        <v>25</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="F37" s="20">
+        <v>59</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="F38" s="25">
-        <v>53</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>35</v>
-      </c>
+      <c r="F38" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1">
@@ -2000,23 +1986,23 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="F39" s="25">
-        <v>54</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>35</v>
+      <c r="F39" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2025,139 +2011,74 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="F40" s="25">
-        <v>55</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="F40" s="23">
+        <v>14</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="F41" s="25">
-        <v>56</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="F42" s="22">
-        <v>58</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="F43" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-    </row>
-    <row r="44" spans="1:10">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="F44" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="F45" s="25">
-        <v>14</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
@@ -2288,6 +2209,9 @@
         <v>55</v>
       </c>
       <c r="B59" s="6"/>
+      <c r="C59" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4">
@@ -2295,9 +2219,6 @@
         <v>56</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="C60" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4">
@@ -2305,6 +2226,9 @@
         <v>57</v>
       </c>
       <c r="B61" s="6"/>
+      <c r="C61" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4">
@@ -2312,18 +2236,25 @@
         <v>58</v>
       </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4">
-      <c r="D64" s="2"/>
+    <row r="64" spans="2:4">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2336,7 +2267,7 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F38:H38"/>
     <mergeCell ref="F5:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -1219,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
   <si>
     <t>置換変数</t>
   </si>
@@ -383,13 +383,43 @@
     <t>発送したチケットが、郵便局での保管期間終了などで弊社に返送されてまいりました場合、</t>
   </si>
   <si>
+    <t>出し分け仕様</t>
+  </si>
+  <si>
     <t>再発送に要する再発送料は別途頂戴いたしますのでご了承ください。</t>
   </si>
   <si>
+    <t>出し分け条件</t>
+  </si>
+  <si>
+    <t>システム上の置換対象ターゲット</t>
+  </si>
+  <si>
+    <t>システム表現</t>
+  </si>
+  <si>
+    <t>改行あり</t>
+  </si>
+  <si>
     <t>公演日の1週間前になってもチケットがお手元に届かない場合は、 チケットぴあメールセンターまでお問い合わせください。</t>
   </si>
   <si>
+    <t>公演会場席番号TOが空でない場合に表示する。</t>
+  </si>
+  <si>
+    <t>#if(${bean.seatNoTo})</t>
+  </si>
+  <si>
     <t>チケットぴあメールセンター (営業時間 10:00-18:00)</t>
+  </si>
+  <si>
+    <t>差し込みファイルが存在する場合に表示する。</t>
+  </si>
+  <si>
+    <t>plugTextNotice</t>
+  </si>
+  <si>
+    <t>#if(${bean.plugTextNotice})</t>
   </si>
   <si>
     <t>電話:0570-02-9596</t>
@@ -1217,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1232,9 +1262,9 @@
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="53.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="27.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.93333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.2916666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
     <col min="13" max="13" width="29.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
@@ -2040,7 +2070,7 @@
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -2049,36 +2079,95 @@
         <v>121</v>
       </c>
       <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44" s="23">
+        <v>14</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D45" s="6"/>
+      <c r="F45" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="K45" s="35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
@@ -2086,7 +2175,7 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D46" s="6"/>
     </row>
@@ -2103,7 +2192,7 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -2113,7 +2202,7 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D49" s="6"/>
     </row>
@@ -2123,7 +2212,7 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -2133,7 +2222,7 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D51" s="6"/>
     </row>
@@ -2143,7 +2232,7 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2153,7 +2242,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D53" s="6"/>
     </row>
@@ -2163,7 +2252,7 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D54" s="6"/>
     </row>
@@ -2180,7 +2269,7 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2190,7 +2279,7 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D57" s="6"/>
     </row>
@@ -2200,7 +2289,7 @@
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -2210,7 +2299,7 @@
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2227,7 +2316,7 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D61" s="6"/>
     </row>
@@ -2257,7 +2346,7 @@
       <c r="D65" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
@@ -2268,6 +2357,7 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F42:H42"/>
     <mergeCell ref="F5:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -407,7 +407,7 @@
     <t>公演会場席番号TOが空でない場合に表示する。</t>
   </si>
   <si>
-    <t>#if(${bean.seatNoTo})</t>
+    <t>#if(${bean.seatNoTo}) - #end</t>
   </si>
   <si>
     <t>チケットぴあメールセンター (営業時間 10:00-18:00)</t>
@@ -419,7 +419,9 @@
     <t>plugTextNotice</t>
   </si>
   <si>
-    <t>#if(${bean.plugTextNotice})</t>
+    <t>#if(${bean.plugTextNotice})
+$!{plugTextNotice}
+#end</t>
   </si>
   <si>
     <t>電話:0570-02-9596</t>
@@ -520,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -748,6 +750,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +912,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,8 +1276,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1263,7 +1290,7 @@
     <col min="7" max="7" width="25.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="53.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="35.2916666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.275" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
     <col min="13" max="13" width="29.125" style="1" customWidth="1"/>
@@ -2134,14 +2161,14 @@
       <c r="I44" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="J44" s="35" t="s">
+      <c r="J44" s="36" t="s">
         <v>130</v>
       </c>
       <c r="K44" s="35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" ht="14.5" customHeight="1" spans="1:11">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -2159,13 +2186,13 @@
       <c r="H45" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="35" t="s">
+      <c r="I45" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J45" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="K45" s="35" t="b">
+      <c r="K45" s="39" t="b">
         <v>1</v>
       </c>
     </row>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>置換変数</t>
   </si>
@@ -335,9 +335,6 @@
     <t>チケットはゆうメール(簡易書留扱い)にてお届けいたします。</t>
   </si>
   <si>
-    <t>53-56</t>
-  </si>
-  <si>
     <t>差し込み「注意文言」</t>
   </si>
   <si>
@@ -398,7 +395,7 @@
     <t>システム表現</t>
   </si>
   <si>
-    <t>改行あり</t>
+    <t>行を丸ごと置換</t>
   </si>
   <si>
     <t>公演日の1週間前になってもチケットがお手元に届かない場合は、 チケットぴあメールセンターまでお問い合わせください。</t>
@@ -413,14 +410,12 @@
     <t>チケットぴあメールセンター (営業時間 10:00-18:00)</t>
   </si>
   <si>
-    <t>差し込みファイルが存在する場合に表示する。</t>
-  </si>
-  <si>
-    <t>plugTextNotice</t>
+    <t>差し込みファイルが存在する場合に表示する。
+存在しない場合はトルツメする。</t>
   </si>
   <si>
     <t>#if(${bean.plugTextNotice})
-$!{plugTextNotice}
+$!{bean.plugTextNotice}
 #end</t>
   </si>
   <si>
@@ -462,11 +457,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;【&quot;0&quot;】&quot;"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -736,29 +731,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -768,44 +761,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -854,10 +847,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1">
@@ -893,10 +886,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="5" applyFill="1" applyBorder="1">
@@ -905,7 +898,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
@@ -917,14 +922,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1276,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1291,7 +1296,7 @@
     <col min="8" max="8" width="53.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="35.2916666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="33.275" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
     <col min="13" max="13" width="29.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
@@ -1299,10 +1304,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:10">
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="38" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1314,7 +1319,7 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="39" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1498,10 +1503,10 @@
       <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1523,10 +1528,10 @@
       <c r="H17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1548,10 +1553,10 @@
       <c r="H18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1573,10 +1578,10 @@
       <c r="H19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1598,10 +1603,10 @@
       <c r="H20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1623,10 +1628,10 @@
       <c r="H21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1648,10 +1653,10 @@
       <c r="H22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1673,10 +1678,10 @@
       <c r="H23" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1695,10 +1700,10 @@
       <c r="H24" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1720,10 +1725,10 @@
       <c r="H25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="J25" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1745,10 +1750,10 @@
       <c r="H26" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1770,10 +1775,10 @@
       <c r="H27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1795,10 +1800,10 @@
       <c r="H28" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1820,10 +1825,10 @@
       <c r="H29" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J29" s="35" t="s">
+      <c r="J29" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1845,10 +1850,10 @@
       <c r="H30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J30" s="35" t="s">
+      <c r="J30" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1870,10 +1875,10 @@
       <c r="H31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1895,10 +1900,10 @@
       <c r="H32" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1920,10 +1925,10 @@
       <c r="H33" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="35" t="s">
+      <c r="J33" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1942,10 +1947,10 @@
       <c r="H34" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="35" t="s">
+      <c r="J34" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1967,10 +1972,10 @@
       <c r="H35" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="35" t="s">
+      <c r="I35" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1983,17 +1988,17 @@
         <v>105</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="23">
+        <v>53</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="H36" s="25"/>
+      <c r="I36" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="J36" s="35" t="s">
+      <c r="J36" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2003,23 +2008,23 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="6"/>
       <c r="F37" s="20">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G37" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="I37" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="J37" s="39" t="s">
         <v>112</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2028,11 +2033,11 @@
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="6"/>
       <c r="F38" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -2043,7 +2048,7 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="6"/>
       <c r="F39" s="30" t="s">
@@ -2055,10 +2060,10 @@
       <c r="H39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2068,22 +2073,22 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="6"/>
       <c r="F40" s="23">
         <v>14</v>
       </c>
       <c r="G40" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="H40" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" s="35" t="s">
+      <c r="J40" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2093,7 +2098,7 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="6"/>
     </row>
@@ -2103,11 +2108,11 @@
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="6"/>
       <c r="F42" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -2118,7 +2123,7 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43" s="6"/>
       <c r="F43" s="17" t="s">
@@ -2128,16 +2133,16 @@
         <v>27</v>
       </c>
       <c r="H43" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="J43" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="K43" s="38" t="s">
         <v>126</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2146,25 +2151,25 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="F44" s="33">
+        <v>14</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="F44" s="23">
-        <v>14</v>
-      </c>
-      <c r="G44" s="24" t="s">
+      <c r="I44" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="J44" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="I44" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="K44" s="35" t="b">
+      <c r="K44" s="40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2174,44 +2179,54 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="F45" s="34">
+        <v>53</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="F45" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H45" s="25" t="s">
+      <c r="I45" s="41"/>
+      <c r="J45" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="K45" s="39" t="b">
+      <c r="K45" s="43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>42</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="43"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>43</v>
       </c>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="43"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
@@ -2219,7 +2234,7 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -2229,7 +2244,7 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="6"/>
     </row>
@@ -2239,7 +2254,7 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -2249,7 +2264,7 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" s="6"/>
     </row>
@@ -2259,7 +2274,7 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2269,7 +2284,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" s="6"/>
     </row>
@@ -2279,7 +2294,7 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D54" s="6"/>
     </row>
@@ -2296,7 +2311,7 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2306,61 +2321,52 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>54</v>
-      </c>
+    <row r="58" spans="2:4">
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
-        <v>55</v>
-      </c>
+    <row r="59" spans="2:4">
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
-        <v>56</v>
-      </c>
+    <row r="60" spans="2:4">
       <c r="B60" s="6"/>
       <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B62" s="6"/>
       <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" s="6"/>
     </row>
@@ -2373,7 +2379,7 @@
       <c r="D65" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
@@ -2386,6 +2392,12 @@
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="K45:K47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
   <si>
     <t>置換変数</t>
   </si>
@@ -395,7 +395,7 @@
     <t>システム表現</t>
   </si>
   <si>
-    <t>行を丸ごと置換</t>
+    <t>置換方式</t>
   </si>
   <si>
     <t>公演日の1週間前になってもチケットがお手元に届かない場合は、 チケットぴあメールセンターまでお問い合わせください。</t>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>#if(${bean.seatNoTo}) - #end</t>
+  </si>
+  <si>
+    <t>ターゲットのみ</t>
   </si>
   <si>
     <t>チケットぴあメールセンター (営業時間 10:00-18:00)</t>
@@ -417,6 +420,9 @@
     <t>#if(${bean.plugTextNotice})
 $!{bean.plugTextNotice}
 #end</t>
+  </si>
+  <si>
+    <t>行丸ごと</t>
   </si>
   <si>
     <t>電話:0570-02-9596</t>
@@ -1281,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2169,8 +2175,8 @@
       <c r="J44" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="40" t="b">
-        <v>0</v>
+      <c r="K44" s="40" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="14.5" customHeight="1" spans="1:11">
@@ -2179,7 +2185,7 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="6"/>
       <c r="F45" s="34">
@@ -2189,14 +2195,14 @@
         <v>106</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I45" s="41"/>
       <c r="J45" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="K45" s="43" t="b">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2205,7 +2211,7 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="6"/>
       <c r="F46" s="34"/>
@@ -2234,7 +2240,7 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D48" s="6"/>
     </row>
@@ -2244,7 +2250,7 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D49" s="6"/>
     </row>
@@ -2254,7 +2260,7 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D50" s="6"/>
     </row>
@@ -2264,7 +2270,7 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D51" s="6"/>
     </row>
@@ -2274,7 +2280,7 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -2284,7 +2290,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D53" s="6"/>
     </row>
@@ -2294,7 +2300,7 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D54" s="6"/>
     </row>
@@ -2311,7 +2317,7 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2321,21 +2327,21 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2349,7 +2355,7 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D61" s="6"/>
     </row>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>置換変数</t>
   </si>
@@ -429,6 +429,19 @@
   </si>
   <si>
     <t xml:space="preserve">☆★せっかくチケットを買ったのに…… </t>
+  </si>
+  <si>
+    <t>24-25</t>
+  </si>
+  <si>
+    <t>#if(${bean.paymentType})
+[[[FROM]]]
+#else
+これは、代替のテキストです。
+#end</t>
+  </si>
+  <si>
+    <t>複数行を囲む</t>
   </si>
   <si>
     <t>急用でコンサートやお芝居に行けなくなってしまった経験ありませんか?</t>
@@ -804,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -916,17 +929,17 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -934,8 +947,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1287,8 +1318,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1300,9 +1331,9 @@
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="53.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="35.2916666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.275" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
     <col min="13" max="13" width="29.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
@@ -1310,10 +1341,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:10">
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1325,7 +1356,7 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="45" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1509,10 +1540,10 @@
       <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1534,10 +1565,10 @@
       <c r="H17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1559,10 +1590,10 @@
       <c r="H18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1584,10 +1615,10 @@
       <c r="H19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1609,10 +1640,10 @@
       <c r="H20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1634,10 +1665,10 @@
       <c r="H21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1659,10 +1690,10 @@
       <c r="H22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1684,10 +1715,10 @@
       <c r="H23" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1706,10 +1737,10 @@
       <c r="H24" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1731,10 +1762,10 @@
       <c r="H25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1756,10 +1787,10 @@
       <c r="H26" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1781,10 +1812,10 @@
       <c r="H27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1806,10 +1837,10 @@
       <c r="H28" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1831,10 +1862,10 @@
       <c r="H29" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="J29" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1856,10 +1887,10 @@
       <c r="H30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1881,10 +1912,10 @@
       <c r="H31" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1906,10 +1937,10 @@
       <c r="H32" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1931,10 +1962,10 @@
       <c r="H33" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1953,10 +1984,10 @@
       <c r="H34" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1978,10 +2009,10 @@
       <c r="H35" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="39" t="s">
+      <c r="J35" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2001,10 +2032,10 @@
         <v>106</v>
       </c>
       <c r="H36" s="25"/>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2026,10 +2057,10 @@
       <c r="H37" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="J37" s="39" t="s">
+      <c r="J37" s="45" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2066,10 +2097,10 @@
       <c r="H39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="38" t="s">
+      <c r="I39" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="38" t="s">
+      <c r="J39" s="44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2091,10 +2122,10 @@
       <c r="H40" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="45" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2141,13 +2172,13 @@
       <c r="H43" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="J43" s="38" t="s">
+      <c r="J43" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="K43" s="38" t="s">
+      <c r="K43" s="44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2169,13 +2200,13 @@
       <c r="H44" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J44" s="40" t="s">
+      <c r="J44" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="47" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2198,10 +2229,10 @@
         <v>132</v>
       </c>
       <c r="I45" s="41"/>
-      <c r="J45" s="42" t="s">
+      <c r="J45" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K45" s="43" t="s">
+      <c r="K45" s="41" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2218,8 +2249,8 @@
       <c r="G46" s="35"/>
       <c r="H46" s="36"/>
       <c r="I46" s="41"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="43"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="41"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
@@ -2227,14 +2258,14 @@
       </c>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43"/>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="47"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -2243,46 +2274,86 @@
         <v>136</v>
       </c>
       <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="41"/>
+      <c r="J48" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>45</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49" s="40"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="41"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>46</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="41"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="41"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>48</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D52" s="6"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="41"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
@@ -2290,7 +2361,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D53" s="6"/>
     </row>
@@ -2300,7 +2371,7 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D54" s="6"/>
     </row>
@@ -2317,7 +2388,7 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -2327,21 +2398,21 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2355,7 +2426,7 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D61" s="6"/>
     </row>
@@ -2385,7 +2456,7 @@
       <c r="D65" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
@@ -2399,11 +2470,17 @@
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F48:F52"/>
     <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G48:G52"/>
     <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H52"/>
     <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I48:I52"/>
     <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J48:J52"/>
     <mergeCell ref="K45:K47"/>
+    <mergeCell ref="K48:K52"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>置換変数</t>
   </si>
@@ -434,9 +434,14 @@
     <t>24-25</t>
   </si>
   <si>
+    <t>決済種別が存在する場合に表示する。
+存在しない場合は代替のテキストを表示する。</t>
+  </si>
+  <si>
     <t>#if(${bean.paymentType})
-[[[FROM]]]
+[[[置換前の内容]]]
 #else
+◆引取ほうほう
 これは、代替のテキストです。
 #end</t>
   </si>
@@ -460,6 +465,21 @@
   </si>
   <si>
     <t>※リセール申込対象外の公演もございます。</t>
+  </si>
+  <si>
+    <t>31-42</t>
+  </si>
+  <si>
+    <t>チケットの発送について</t>
+  </si>
+  <si>
+    <t>引取方法が存在する場合に表示する。
+存在しない場合はトルツメする。</t>
+  </si>
+  <si>
+    <t>#if(${bean.takeOffMethod})
+[[[置換前の内容]]]
+#end</t>
   </si>
   <si>
     <t>ここからは差し込みファイル表現用</t>
@@ -479,8 +499,8 @@
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;【&quot;0&quot;】&quot;"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="&quot;【&quot;0&quot;】&quot;"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -935,35 +955,35 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1318,8 +1338,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:F52"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2228,11 +2248,11 @@
       <c r="H45" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="48" t="s">
+      <c r="I45" s="48"/>
+      <c r="J45" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="K45" s="41" t="s">
+      <c r="K45" s="48" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2248,9 +2268,9 @@
       <c r="F46" s="34"/>
       <c r="G46" s="35"/>
       <c r="H46" s="36"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="41"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="48"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
@@ -2260,7 +2280,7 @@
       <c r="D47" s="6"/>
       <c r="F47" s="37"/>
       <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="47"/>
       <c r="J47" s="49"/>
       <c r="K47" s="47"/>
@@ -2274,21 +2294,21 @@
         <v>136</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="G48" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H48" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="48" t="s">
+      <c r="H48" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="K48" s="41" t="s">
+      <c r="I48" s="40"/>
+      <c r="J48" s="40" t="s">
         <v>139</v>
+      </c>
+      <c r="K48" s="40" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2297,15 +2317,15 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="41"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
@@ -2313,15 +2333,15 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="6"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="41"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
@@ -2329,15 +2349,15 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="41"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
@@ -2345,52 +2365,86 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="41"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>49</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53" s="39"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="40"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>50</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="K54" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>51</v>
       </c>
       <c r="B55" s="6"/>
       <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D56" s="6"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
@@ -2398,21 +2452,21 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -2426,7 +2480,7 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D61" s="6"/>
     </row>
@@ -2456,7 +2510,7 @@
       <c r="D65" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="30">
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
@@ -2470,17 +2524,23 @@
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="F54:F56"/>
     <mergeCell ref="G45:G47"/>
-    <mergeCell ref="G48:G52"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="G54:G56"/>
     <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H48:H52"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="H54:H56"/>
     <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="I54:I56"/>
     <mergeCell ref="J45:J47"/>
-    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="J54:J56"/>
     <mergeCell ref="K45:K47"/>
-    <mergeCell ref="K48:K52"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="K54:K56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <t>置換変数</t>
   </si>
@@ -483,6 +483,20 @@
   </si>
   <si>
     <t>ここからは差し込みファイル表現用</t>
+  </si>
+  <si>
+    <t>フッターの出し分け</t>
+  </si>
+  <si>
+    <t>個別の場合は、個別フッターを表示する。</t>
+  </si>
+  <si>
+    <t>#if(${parts.other})
+[[[置換前の内容]]]
+#else
+#set($parts = $EachFooter)
+#parse("mail/template/parts/eachFooter.vm")
+#end</t>
   </si>
   <si>
     <t>万が一、病気などで行けなくなった時に備えて購入後すぐチケットにかける保険。チケットガードに入っていれば、もう安心!</t>
@@ -837,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +998,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1338,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2443,10 +2460,10 @@
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
       <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+      <c r="J56" s="50"/>
       <c r="K56" s="42"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -2455,26 +2472,60 @@
         <v>151</v>
       </c>
       <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="2:4">
+      <c r="F57" s="41">
+        <v>56</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H57" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="2:4">
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+    </row>
+    <row r="59" spans="2:11">
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="2:4">
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+    </row>
+    <row r="60" spans="2:11">
       <c r="B60" s="6"/>
       <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>54</v>
       </c>
@@ -2483,15 +2534,27 @@
         <v>142</v>
       </c>
       <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>55</v>
       </c>
       <c r="B62" s="6"/>
       <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>56</v>
       </c>
@@ -2500,6 +2563,12 @@
         <v>110</v>
       </c>
       <c r="D63" s="6"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="6"/>
@@ -2510,7 +2579,7 @@
       <c r="D65" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="36">
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
@@ -2526,21 +2595,27 @@
     <mergeCell ref="F45:F47"/>
     <mergeCell ref="F48:F53"/>
     <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F57:F63"/>
     <mergeCell ref="G45:G47"/>
     <mergeCell ref="G48:G53"/>
     <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G63"/>
     <mergeCell ref="H45:H47"/>
     <mergeCell ref="H48:H53"/>
     <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H63"/>
     <mergeCell ref="I45:I47"/>
     <mergeCell ref="I48:I53"/>
     <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I57:I63"/>
     <mergeCell ref="J45:J47"/>
     <mergeCell ref="J48:J53"/>
     <mergeCell ref="J54:J56"/>
+    <mergeCell ref="J57:J63"/>
     <mergeCell ref="K45:K47"/>
     <mergeCell ref="K48:K53"/>
     <mergeCell ref="K54:K56"/>
+    <mergeCell ref="K57:K63"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -491,7 +491,7 @@
     <t>個別の場合は、個別フッターを表示する。</t>
   </si>
   <si>
-    <t>#if(${parts.other})
+    <t>#if(${bean.isCommon})
 [[[置換前の内容]]]
 #else
 #set($parts = $EachFooter)
@@ -1355,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54:G56"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>置換変数</t>
   </si>
@@ -23,6 +23,9 @@
     <t>種別</t>
   </si>
   <si>
+    <t>クラスコメント</t>
+  </si>
+  <si>
     <t>■ サンプルメール</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t>本体</t>
+  </si>
+  <si>
+    <t>サンプルA本体のメール用Bean</t>
   </si>
   <si>
     <t>行番号</t>
@@ -1355,8 +1361,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57:I63"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1370,36 +1376,42 @@
     <col min="8" max="8" width="53.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="30.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
     <col min="13" max="13" width="29.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:10">
+    <row r="1" spans="9:11">
       <c r="I1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" spans="2:10">
+      <c r="K1" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="2:11">
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4"/>
       <c r="I2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1411,14 +1423,14 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -1430,7 +1442,7 @@
       <c r="D6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" s="11"/>
     </row>
@@ -1440,12 +1452,12 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="11"/>
     </row>
@@ -1455,12 +1467,12 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="11"/>
     </row>
@@ -1470,12 +1482,12 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="11"/>
     </row>
@@ -1485,11 +1497,11 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -1500,11 +1512,11 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -1515,7 +1527,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -1525,11 +1537,11 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1540,7 +1552,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -1550,11 +1562,11 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="6"/>
       <c r="F15" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -1565,23 +1577,23 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="6"/>
       <c r="F16" s="17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I16" s="44" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1590,23 +1602,23 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6"/>
       <c r="F17" s="20">
         <v>1</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1615,23 +1627,23 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6"/>
       <c r="F18" s="23">
         <v>6</v>
       </c>
       <c r="G18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="45" t="s">
         <v>36</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1640,23 +1652,23 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="6"/>
       <c r="F19" s="23">
         <v>8</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1665,23 +1677,23 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6"/>
       <c r="F20" s="23">
         <v>9</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1690,23 +1702,23 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" s="6"/>
       <c r="F21" s="23">
         <v>10</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1715,23 +1727,23 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6"/>
       <c r="F22" s="23">
         <v>11</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J22" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1740,23 +1752,23 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="6"/>
       <c r="F23" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1769,16 +1781,16 @@
         <v>14</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H24" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="I24" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1787,23 +1799,23 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="6"/>
       <c r="F25" s="23">
         <v>14</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1812,23 +1824,23 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6"/>
       <c r="F26" s="23">
         <v>14</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1837,23 +1849,23 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="6"/>
       <c r="F27" s="23">
         <v>14</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1862,23 +1874,23 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="6"/>
       <c r="F28" s="23">
         <v>16</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1887,23 +1899,23 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D29" s="6"/>
       <c r="F29" s="23">
         <v>17</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1912,23 +1924,23 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D30" s="6"/>
       <c r="F30" s="23">
         <v>17</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1937,23 +1949,23 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="6"/>
       <c r="F31" s="23">
         <v>18</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1962,23 +1974,23 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="6"/>
       <c r="F32" s="23">
         <v>19</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1987,23 +1999,23 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="6"/>
       <c r="F33" s="23">
         <v>22</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2016,16 +2028,16 @@
         <v>23</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2034,23 +2046,23 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="6"/>
       <c r="F35" s="23">
         <v>25</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2059,21 +2071,21 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="6"/>
       <c r="F36" s="23">
         <v>53</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2082,23 +2094,23 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="6"/>
       <c r="F37" s="20">
         <v>56</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2107,11 +2119,11 @@
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="6"/>
       <c r="F38" s="29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
@@ -2122,23 +2134,23 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="6"/>
       <c r="F39" s="30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I39" s="44" t="s">
         <v>0</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2147,23 +2159,23 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="6"/>
       <c r="F40" s="23">
         <v>14</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J40" s="45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2172,7 +2184,7 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="6"/>
     </row>
@@ -2182,11 +2194,11 @@
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="6"/>
       <c r="F42" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -2197,26 +2209,26 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D43" s="6"/>
       <c r="F43" s="17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J43" s="44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K43" s="44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2225,26 +2237,26 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="6"/>
       <c r="F44" s="33">
         <v>14</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I44" s="46" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J44" s="46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K44" s="47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="14.5" customHeight="1" spans="1:11">
@@ -2253,24 +2265,24 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D45" s="6"/>
       <c r="F45" s="34">
         <v>53</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K45" s="48" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2279,7 +2291,7 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="6"/>
       <c r="F46" s="34"/>
@@ -2308,24 +2320,24 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D48" s="6"/>
       <c r="F48" s="39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2334,7 +2346,7 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="39"/>
@@ -2350,7 +2362,7 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" s="6"/>
       <c r="F50" s="39"/>
@@ -2366,7 +2378,7 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D51" s="6"/>
       <c r="F51" s="39"/>
@@ -2382,7 +2394,7 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D52" s="6"/>
       <c r="F52" s="39"/>
@@ -2398,7 +2410,7 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D53" s="6"/>
       <c r="F53" s="39"/>
@@ -2414,24 +2426,24 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D54" s="6"/>
       <c r="F54" s="41" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H54" s="42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I54" s="42"/>
       <c r="J54" s="42" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K54" s="42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2453,7 +2465,7 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D56" s="6"/>
       <c r="F56" s="41"/>
@@ -2469,30 +2481,30 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D57" s="6"/>
       <c r="F57" s="41">
         <v>56</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H57" s="42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I57" s="42"/>
       <c r="J57" s="42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K57" s="42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D58" s="6"/>
       <c r="F58" s="41"/>
@@ -2505,7 +2517,7 @@
     <row r="59" spans="2:11">
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D59" s="6"/>
       <c r="F59" s="41"/>
@@ -2531,7 +2543,7 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D61" s="6"/>
       <c r="F61" s="41"/>
@@ -2560,7 +2572,7 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D63" s="6"/>
       <c r="F63" s="41"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -29,7 +29,7 @@
     <t>■ サンプルメール</t>
   </si>
   <si>
-    <t>sampleA</t>
+    <t>sample_abc_defG</t>
   </si>
   <si>
     <t>本体</t>
@@ -356,7 +356,7 @@
     <t>＜共通フッター＞</t>
   </si>
   <si>
-    <t>$INCLUDE$footer</t>
+    <t>$INCLUDE$comcom_footer</t>
   </si>
   <si>
     <t>-</t>
@@ -519,8 +519,8 @@
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="&quot;【&quot;0&quot;】&quot;"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -857,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -981,12 +981,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1004,9 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1361,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1384,13 +1375,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:11">
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="42" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1402,10 +1393,10 @@
       <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1589,10 +1580,10 @@
       <c r="H16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="42" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1614,10 +1605,10 @@
       <c r="H17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1639,10 +1630,10 @@
       <c r="H18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1664,10 +1655,10 @@
       <c r="H19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1689,10 +1680,10 @@
       <c r="H20" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1714,10 +1705,10 @@
       <c r="H21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1739,10 +1730,10 @@
       <c r="H22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1764,10 +1755,10 @@
       <c r="H23" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1786,10 +1777,10 @@
       <c r="H24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1811,10 +1802,10 @@
       <c r="H25" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1836,10 +1827,10 @@
       <c r="H26" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1861,10 +1852,10 @@
       <c r="H27" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="43" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1886,10 +1877,10 @@
       <c r="H28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="45" t="s">
+      <c r="J28" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1911,10 +1902,10 @@
       <c r="H29" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1936,10 +1927,10 @@
       <c r="H30" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1961,10 +1952,10 @@
       <c r="H31" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1986,10 +1977,10 @@
       <c r="H32" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2011,10 +2002,10 @@
       <c r="H33" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2033,10 +2024,10 @@
       <c r="H34" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2058,10 +2049,10 @@
       <c r="H35" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2081,10 +2072,10 @@
         <v>108</v>
       </c>
       <c r="H36" s="25"/>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2106,10 +2097,10 @@
       <c r="H37" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2146,10 +2137,10 @@
       <c r="H39" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="44" t="s">
+      <c r="J39" s="42" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2171,10 +2162,10 @@
       <c r="H40" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I40" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="43" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2221,13 +2212,13 @@
       <c r="H43" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="44" t="s">
+      <c r="I43" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="J43" s="44" t="s">
+      <c r="J43" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="K43" s="44" t="s">
+      <c r="K43" s="42" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2249,13 +2240,13 @@
       <c r="H44" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="I44" s="46" t="s">
+      <c r="I44" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="J44" s="46" t="s">
+      <c r="J44" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="K44" s="47" t="s">
+      <c r="K44" s="45" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2277,11 +2268,11 @@
       <c r="H45" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="I45" s="48"/>
+      <c r="I45" s="46"/>
       <c r="J45" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="K45" s="48" t="s">
+      <c r="K45" s="46" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2297,9 +2288,9 @@
       <c r="F46" s="34"/>
       <c r="G46" s="35"/>
       <c r="H46" s="36"/>
-      <c r="I46" s="48"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="48"/>
+      <c r="K46" s="46"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
@@ -2310,9 +2301,9 @@
       <c r="F47" s="37"/>
       <c r="G47" s="38"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="47"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="45"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
@@ -2417,7 +2408,7 @@
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="49"/>
+      <c r="J53" s="47"/>
       <c r="K53" s="40"/>
     </row>
     <row r="54" spans="1:11">
@@ -2429,20 +2420,20 @@
         <v>148</v>
       </c>
       <c r="D54" s="6"/>
-      <c r="F54" s="41" t="s">
+      <c r="F54" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="H54" s="42" t="s">
+      <c r="H54" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42" t="s">
+      <c r="I54" s="40"/>
+      <c r="J54" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="K54" s="42" t="s">
+      <c r="K54" s="40" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2452,12 +2443,12 @@
       </c>
       <c r="B55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
@@ -2468,12 +2459,12 @@
         <v>144</v>
       </c>
       <c r="D56" s="6"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="42"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
@@ -2484,20 +2475,20 @@
         <v>153</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="F57" s="41">
+      <c r="F57" s="39">
         <v>56</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H57" s="42" t="s">
+      <c r="H57" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42" t="s">
+      <c r="I57" s="40"/>
+      <c r="J57" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="K57" s="42" t="s">
+      <c r="K57" s="40" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2507,12 +2498,12 @@
         <v>157</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="6"/>
@@ -2520,22 +2511,22 @@
         <v>158</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
@@ -2546,12 +2537,12 @@
         <v>144</v>
       </c>
       <c r="D61" s="6"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
@@ -2559,12 +2550,12 @@
       </c>
       <c r="B62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
@@ -2575,12 +2566,12 @@
         <v>112</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="6"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>置換変数</t>
   </si>
@@ -101,274 +101,286 @@
     <t>表示仕様</t>
   </si>
   <si>
+    <t>Beanクラス上のプロパティ定義</t>
+  </si>
+  <si>
     <t>■購入チケット情報</t>
   </si>
   <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>置換対象</t>
+    <t>ラベル（簡易的な説明）</t>
+  </si>
+  <si>
+    <t>置換対象（表示内容が動的に変わる部分）</t>
+  </si>
+  <si>
+    <t>プロパティ名</t>
+  </si>
+  <si>
+    <t>定義上の型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全席指定  3枚  </t>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+  </si>
+  <si>
+    <t>○× △□</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>1階 13列 26番-28番</t>
+  </si>
+  <si>
+    <t>チケット番号</t>
+  </si>
+  <si>
+    <t>399 424 126</t>
+  </si>
+  <si>
+    <t>ticketNumber</t>
+  </si>
+  <si>
+    <t>■料金明細</t>
+  </si>
+  <si>
+    <t>公演名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ベネッセ　English　Concert　for　Kids　HELLO,FRIENDS! </t>
+  </si>
+  <si>
+    <t>eventName</t>
+  </si>
+  <si>
+    <t>チケット料金:全席指定 3枚 計9,360円</t>
+  </si>
+  <si>
+    <t>公演日</t>
+  </si>
+  <si>
+    <t>2016/6/26(日)</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
+    <t>java.util.Date</t>
+  </si>
+  <si>
+    <t>システム利用料:216円 × 3枚 計 648円</t>
+  </si>
+  <si>
+    <t>開演時刻</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>eventTime</t>
+  </si>
+  <si>
+    <t>配送手数料:617円</t>
+  </si>
+  <si>
+    <t>公演会場名</t>
+  </si>
+  <si>
+    <t>川口総合文化センター　リリア　メインホール (埼玉県)</t>
+  </si>
+  <si>
+    <t>eventPlace</t>
+  </si>
+  <si>
+    <t>合計金額:計 10,625円</t>
+  </si>
+  <si>
+    <t>13,16,17</t>
+  </si>
+  <si>
+    <t>チケット購入枚数</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ticketCount</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>公演会場階数</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>floorNo</t>
+  </si>
+  <si>
+    <t>■決済方法</t>
+  </si>
+  <si>
+    <t>公演会場席列番号</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>columnsNo</t>
+  </si>
+  <si>
+    <t>クレジットカード</t>
+  </si>
+  <si>
+    <t>公演会場席番号FROM</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>seatNoFrom</t>
+  </si>
+  <si>
+    <t>登録名:VISA</t>
+  </si>
+  <si>
+    <t>公演会場席番号TO</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>seatNoTo</t>
+  </si>
+  <si>
+    <t>■引取方法</t>
+  </si>
+  <si>
+    <t>チケット料金合計金額</t>
+  </si>
+  <si>
+    <t>9,360</t>
+  </si>
+  <si>
+    <t>ticketTotalAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配送でお届け </t>
+  </si>
+  <si>
+    <t>システム利用料</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>systemUseAmount</t>
+  </si>
+  <si>
+    <t>お届け先:基本情報</t>
+  </si>
+  <si>
+    <t>システム利用料合計金額</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>systemUseTotalAmount</t>
+  </si>
+  <si>
+    <t>◆決済について</t>
+  </si>
+  <si>
+    <t>配送手数料</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>shippingCharges</t>
+  </si>
+  <si>
+    <t>ご登録の決済方法にてお支払い手続きは完了しています。</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>10,625</t>
+  </si>
+  <si>
+    <t>totalAmount</t>
+  </si>
+  <si>
+    <t>ご購入後のチケットの変更・キャンセルはできません。</t>
+  </si>
+  <si>
+    <t>決済方法</t>
+  </si>
+  <si>
+    <t>paymentMethod</t>
+  </si>
+  <si>
+    <t>決済種別</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>◆チケットの発送について</t>
+  </si>
+  <si>
+    <t>引取方法</t>
+  </si>
+  <si>
+    <t>takeOffMethod</t>
+  </si>
+  <si>
+    <t>チケットはゆうメール(簡易書留扱い)にてお届けいたします。</t>
+  </si>
+  <si>
+    <t>差し込み「注意文言」</t>
+  </si>
+  <si>
+    <t>$PLUGTEXT$plugTextNotice</t>
+  </si>
+  <si>
+    <t>配達時にご不在の場合、不在通知票が投函されますのでご確認ください。</t>
+  </si>
+  <si>
+    <t>「共通フッター」インクルード</t>
+  </si>
+  <si>
+    <t>＜共通フッター＞</t>
+  </si>
+  <si>
+    <t>$INCLUDE$comcom_footer</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>チケットは、ご購入後、2日後-7日後のうちに配達にお伺いたします。</t>
+  </si>
+  <si>
+    <t>システム補足表示仕様</t>
+  </si>
+  <si>
+    <t>発送完了のメールは送信されませんのでご了承ください。</t>
   </si>
   <si>
     <t>型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全席指定  3枚  </t>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-  </si>
-  <si>
-    <t>○× △□</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>1階 13列 26番-28番</t>
-  </si>
-  <si>
-    <t>チケット番号</t>
-  </si>
-  <si>
-    <t>399 424 126</t>
-  </si>
-  <si>
-    <t>ticketNumber</t>
-  </si>
-  <si>
-    <t>■料金明細</t>
-  </si>
-  <si>
-    <t>公演名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ベネッセ　English　Concert　for　Kids　HELLO,FRIENDS! </t>
-  </si>
-  <si>
-    <t>eventName</t>
-  </si>
-  <si>
-    <t>チケット料金:全席指定 3枚 計9,360円</t>
-  </si>
-  <si>
-    <t>公演日</t>
-  </si>
-  <si>
-    <t>2016/6/26(日)</t>
-  </si>
-  <si>
-    <t>eventDate</t>
-  </si>
-  <si>
-    <t>システム利用料:216円 × 3枚 計 648円</t>
-  </si>
-  <si>
-    <t>開演時刻</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>eventTime</t>
-  </si>
-  <si>
-    <t>配送手数料:617円</t>
-  </si>
-  <si>
-    <t>公演会場名</t>
-  </si>
-  <si>
-    <t>川口総合文化センター　リリア　メインホール (埼玉県)</t>
-  </si>
-  <si>
-    <t>eventPlace</t>
-  </si>
-  <si>
-    <t>合計金額:計 10,625円</t>
-  </si>
-  <si>
-    <t>13,16,17</t>
-  </si>
-  <si>
-    <t>チケット購入枚数</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ticketCount</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>公演会場階数</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>floorNo</t>
-  </si>
-  <si>
-    <t>■決済方法</t>
-  </si>
-  <si>
-    <t>公演会場席列番号</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>columnsNo</t>
-  </si>
-  <si>
-    <t>クレジットカード</t>
-  </si>
-  <si>
-    <t>公演会場席番号FROM</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>seatNoFrom</t>
-  </si>
-  <si>
-    <t>登録名:VISA</t>
-  </si>
-  <si>
-    <t>公演会場席番号TO</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>seatNoTo</t>
-  </si>
-  <si>
-    <t>■引取方法</t>
-  </si>
-  <si>
-    <t>チケット料金合計金額</t>
-  </si>
-  <si>
-    <t>9,360</t>
-  </si>
-  <si>
-    <t>ticketTotalAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配送でお届け </t>
-  </si>
-  <si>
-    <t>システム利用料</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>systemUseAmount</t>
-  </si>
-  <si>
-    <t>お届け先:基本情報</t>
-  </si>
-  <si>
-    <t>システム利用料合計金額</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>systemUseTotalAmount</t>
-  </si>
-  <si>
-    <t>◆決済について</t>
-  </si>
-  <si>
-    <t>配送手数料</t>
-  </si>
-  <si>
-    <t>617</t>
-  </si>
-  <si>
-    <t>shippingCharges</t>
-  </si>
-  <si>
-    <t>ご登録の決済方法にてお支払い手続きは完了しています。</t>
-  </si>
-  <si>
-    <t>合計金額</t>
-  </si>
-  <si>
-    <t>10,625</t>
-  </si>
-  <si>
-    <t>totalAmount</t>
-  </si>
-  <si>
-    <t>ご購入後のチケットの変更・キャンセルはできません。</t>
-  </si>
-  <si>
-    <t>決済方法</t>
-  </si>
-  <si>
-    <t>paymentMethod</t>
-  </si>
-  <si>
-    <t>決済種別</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
-    <t>paymentType</t>
-  </si>
-  <si>
-    <t>◆チケットの発送について</t>
-  </si>
-  <si>
-    <t>引取方法</t>
-  </si>
-  <si>
-    <t>takeOffMethod</t>
-  </si>
-  <si>
-    <t>チケットはゆうメール(簡易書留扱い)にてお届けいたします。</t>
-  </si>
-  <si>
-    <t>差し込み「注意文言」</t>
-  </si>
-  <si>
-    <t>$PLUGTEXT$plugTextNotice</t>
-  </si>
-  <si>
-    <t>配達時にご不在の場合、不在通知票が投函されますのでご確認ください。</t>
-  </si>
-  <si>
-    <t>「共通フッター」インクルード</t>
-  </si>
-  <si>
-    <t>＜共通フッター＞</t>
-  </si>
-  <si>
-    <t>$INCLUDE$comcom_footer</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>チケットは、ご購入後、2日後-7日後のうちに配達にお伺いたします。</t>
-  </si>
-  <si>
-    <t>システム補足表示仕様</t>
-  </si>
-  <si>
-    <t>発送完了のメールは送信されませんのでご了承ください。</t>
   </si>
   <si>
     <t>なお、公演によっては発送日が指定されている場合がございます。</t>
@@ -516,11 +528,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="&quot;【&quot;0&quot;】&quot;"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -576,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -685,6 +697,19 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="hair">
         <color indexed="64"/>
@@ -719,98 +744,266 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="hair">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -823,7 +1016,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,7 +1034,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
@@ -906,25 +1099,28 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,67 +1135,148 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="12" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1353,7 +1630,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1363,25 +1640,26 @@
     <col min="3" max="3" width="112.75" style="2" customWidth="1"/>
     <col min="4" max="5" width="3.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="53.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="30.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="1" customWidth="1"/>
     <col min="11" max="11" width="29.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5583333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="9:11">
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1390,13 +1668,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1547,7 +1825,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1560,7 +1838,11 @@
         <v>27</v>
       </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
@@ -1568,23 +1850,23 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="42" t="s">
+      <c r="H16" s="20" t="s">
         <v>31</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1593,23 +1875,23 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="F17" s="20">
+      <c r="F17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="43" t="s">
+      <c r="G17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="H17" s="23" t="s">
         <v>36</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1618,23 +1900,23 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="F18" s="23">
+      <c r="F18" s="24">
         <v>6</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="56" t="s">
         <v>38</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1643,23 +1925,23 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="F19" s="23">
+      <c r="F19" s="24">
         <v>8</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="43" t="s">
+      <c r="G19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="43" t="s">
-        <v>36</v>
+      <c r="H19" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1668,23 +1950,23 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="F20" s="23">
+      <c r="F20" s="24">
         <v>9</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="43" t="s">
+      <c r="G20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="43" t="s">
-        <v>36</v>
+      <c r="H20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1693,23 +1975,23 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="F21" s="23">
+      <c r="F21" s="24">
         <v>10</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="25" t="s">
+      <c r="G21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="56" t="s">
         <v>51</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1718,23 +2000,23 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="F22" s="23">
+      <c r="F22" s="24">
         <v>11</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>36</v>
+      <c r="G22" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="56" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1743,23 +2025,23 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="F23" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="43" t="s">
+      <c r="F23" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="G23" s="25" t="s">
         <v>62</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1768,20 +2050,20 @@
       </c>
       <c r="B24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="F24" s="23">
+      <c r="F24" s="24">
         <v>14</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="43" t="s">
+      <c r="G24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="56" t="s">
         <v>65</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1790,23 +2072,23 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="F25" s="23">
+      <c r="F25" s="24">
         <v>14</v>
       </c>
-      <c r="G25" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>62</v>
+      <c r="G25" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1815,23 +2097,23 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="F26" s="23">
+      <c r="F26" s="24">
         <v>14</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>62</v>
+      <c r="G26" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1840,23 +2122,23 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="F27" s="23">
+      <c r="F27" s="24">
         <v>14</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="43" t="s">
-        <v>62</v>
+      <c r="G27" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1865,23 +2147,23 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="F28" s="23">
+      <c r="F28" s="24">
         <v>16</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="43" t="s">
-        <v>36</v>
+      <c r="G28" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1890,23 +2172,23 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="F29" s="23">
+      <c r="F29" s="24">
         <v>17</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>36</v>
+      <c r="G29" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1915,23 +2197,23 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="F30" s="23">
+      <c r="F30" s="24">
         <v>17</v>
       </c>
-      <c r="G30" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>36</v>
+      <c r="G30" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1940,23 +2222,23 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="F31" s="23">
+      <c r="F31" s="24">
         <v>18</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>36</v>
+      <c r="G31" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1965,23 +2247,23 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="F32" s="23">
+      <c r="F32" s="24">
         <v>19</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>36</v>
+      <c r="G32" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1990,23 +2272,23 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="F33" s="23">
+      <c r="F33" s="24">
         <v>22</v>
       </c>
-      <c r="G33" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>36</v>
+      <c r="G33" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="56" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2015,20 +2297,20 @@
       </c>
       <c r="B34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="F34" s="23">
+      <c r="F34" s="24">
         <v>23</v>
       </c>
-      <c r="G34" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>36</v>
+      <c r="G34" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="56" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2037,23 +2319,23 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="F35" s="23">
+      <c r="F35" s="24">
         <v>25</v>
       </c>
-      <c r="G35" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>36</v>
+      <c r="G35" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="56" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2062,21 +2344,21 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="F36" s="23">
+      <c r="F36" s="24">
         <v>53</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>36</v>
+      <c r="G36" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="56" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2085,39 +2367,41 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="F37" s="20">
+      <c r="F37" s="28">
         <v>56</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="J37" s="43" t="s">
+      <c r="G37" s="29" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="F38" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="F38" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1">
@@ -2125,23 +2409,23 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="32" t="s">
+      <c r="G39" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="H39" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="42" t="s">
-        <v>31</v>
+      <c r="J39" s="62" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2150,23 +2434,23 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D40" s="6"/>
-      <c r="F40" s="23">
+      <c r="F40" s="35">
         <v>14</v>
       </c>
-      <c r="G40" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="J40" s="43" t="s">
-        <v>36</v>
+      <c r="G40" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="64" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2175,7 +2459,7 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D41" s="6"/>
     </row>
@@ -2185,14 +2469,14 @@
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="F42" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="F42" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
@@ -2200,26 +2484,26 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="J43" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="K43" s="42" t="s">
-        <v>128</v>
+      <c r="G43" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="62" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2228,26 +2512,26 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="F44" s="33">
+      <c r="F44" s="21">
         <v>14</v>
       </c>
-      <c r="G44" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="K44" s="45" t="s">
-        <v>132</v>
+      <c r="G44" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="J44" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="K44" s="67" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="14.5" customHeight="1" spans="1:11">
@@ -2256,24 +2540,24 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="F45" s="34">
+      <c r="F45" s="24">
         <v>53</v>
       </c>
-      <c r="G45" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I45" s="46"/>
-      <c r="J45" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="K45" s="46" t="s">
-        <v>136</v>
+      <c r="G45" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="I45" s="68"/>
+      <c r="J45" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="70" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2282,15 +2566,15 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="46"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="70"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
@@ -2298,12 +2582,12 @@
       </c>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="45"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="70"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
@@ -2311,24 +2595,24 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="F48" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="K48" s="40" t="s">
-        <v>142</v>
+      <c r="F48" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="71"/>
+      <c r="J48" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48" s="72" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2337,15 +2621,15 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="72"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1">
@@ -2353,15 +2637,15 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D50" s="6"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="72"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1">
@@ -2369,15 +2653,15 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="72"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1">
@@ -2385,15 +2669,15 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D52" s="6"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="72"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1">
@@ -2401,15 +2685,15 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="40"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="72"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1">
@@ -2417,24 +2701,24 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D54" s="6"/>
-      <c r="F54" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="K54" s="40" t="s">
-        <v>142</v>
+      <c r="F54" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I54" s="71"/>
+      <c r="J54" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" s="72" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2443,12 +2727,12 @@
       </c>
       <c r="B55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="72"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1">
@@ -2456,15 +2740,15 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D56" s="6"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="40"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="72"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1">
@@ -2472,61 +2756,61 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="F57" s="39">
+      <c r="F57" s="41">
         <v>56</v>
       </c>
-      <c r="G57" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="H57" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="K57" s="40" t="s">
-        <v>142</v>
+      <c r="G57" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="I57" s="71"/>
+      <c r="J57" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="K57" s="72" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="6"/>
       <c r="C58" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="72"/>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="6"/>
       <c r="C59" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="72"/>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="72"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1">
@@ -2534,15 +2818,15 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D61" s="6"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="72"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1">
@@ -2550,12 +2834,12 @@
       </c>
       <c r="B62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="72"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1">
@@ -2563,15 +2847,15 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="75"/>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="6"/>
@@ -2582,7 +2866,7 @@
       <c r="D65" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
@@ -2592,6 +2876,7 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="F5:F9"/>

--- a/sample/input/サンプル定義書.xlsx
+++ b/sample/input/サンプル定義書.xlsx
@@ -528,11 +528,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;【&quot;0&quot;】&quot;"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1013,37 +1013,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1629,7 +1629,7 @@
   <sheetPr/>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
